--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>876039.0924376606</v>
+        <v>871555.8899161986</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30009477.79569962</v>
+        <v>30009477.7956996</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7276951.394760767</v>
+        <v>7276951.394760769</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4842098.878459018</v>
+        <v>4842098.878459017</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>193.8576923337613</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>125.0122721605119</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.89215638146401</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1466,7 +1466,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H12" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T12" t="n">
         <v>136.1614894255189</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>85.79634461334403</v>
+        <v>47.5713789087639</v>
       </c>
       <c r="I13" t="n">
-        <v>71.8766712439448</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.356991008622998</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S13" t="n">
         <v>152.8483877177524</v>
       </c>
       <c r="T13" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3338237039372</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>363.013717095077</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>313.6498051676081</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.89215638146401</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T14" t="n">
         <v>209.9888884907911</v>
@@ -1666,13 +1666,13 @@
         <v>255.6118642180837</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H15" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T15" t="n">
         <v>136.1614894255189</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.30916273576207</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>77.76104186101763</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.4071151528002</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.356991008622998</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T16" t="n">
         <v>237.0848299533737</v>
@@ -1827,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>189.9476442983327</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>395.314570537345</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.89215638146401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H18" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T18" t="n">
         <v>136.1614894255189</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>163.7000943114157</v>
       </c>
       <c r="H19" t="n">
-        <v>54.38477152230899</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.8766712439448</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.356991008623005</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S19" t="n">
         <v>152.8483877177524</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3338237039372</v>
+        <v>53.83826129184953</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>397.8310364643144</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,13 +2089,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>318.6262671769968</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>58.58342082549411</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>17.46078581710256</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2289,7 +2289,7 @@
         <v>6.356991008623012</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.0848299533737</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.89215638146401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>142.2191722462306</v>
       </c>
       <c r="U23" t="n">
         <v>255.6118642180837</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>114.7240577135126</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>137.4332693831096</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.4071151528002</v>
+        <v>17.46078581710256</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.356991008623005</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U25" t="n">
         <v>277.3338237039372</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>106.6581742492134</v>
       </c>
       <c r="F26" t="n">
-        <v>330.6732643183356</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.89215638146401</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T26" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.83011541801773</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>146.6234493589861</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>163.7000943114157</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.0848299533737</v>
@@ -2772,7 +2772,7 @@
         <v>277.3338237039372</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>328.7351891636904</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T29" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>280.4024370025414</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7000943114157</v>
+        <v>14.33684106444</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.0848299533737</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>8.752224907532334</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>400.8316958000363</v>
+        <v>367.3539952300316</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>17.46078581710344</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>39.42672762251657</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.8766712439448</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>6.356991008623012</v>
       </c>
       <c r="S34" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.0848299533737</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.89215638146401</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>130.5483169167956</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>17.07029776859309</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.33625846298413</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>149.8637418260254</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8483877177524</v>
@@ -3483,7 +3483,7 @@
         <v>277.3338237039372</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H38" t="n">
         <v>274.4717029063549</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6118642180837</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>312.0356091428972</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>126.6116045879468</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.15129006519454</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8483877177524</v>
+        <v>23.81777682572655</v>
       </c>
       <c r="T40" t="n">
         <v>237.0848299533737</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>114.0937177934444</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H41" t="n">
-        <v>274.4717029063549</v>
+        <v>37.88506295820202</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T41" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>41.11254559115913</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T43" t="n">
         <v>237.0848299533737</v>
@@ -3957,13 +3957,13 @@
         <v>277.3338237039372</v>
       </c>
       <c r="V43" t="n">
-        <v>82.21354304645864</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>53.57643937259461</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>43.916515739302</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,13 +4146,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>71.87667124394481</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.0848299533737</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>18.23945875918271</v>
       </c>
       <c r="W46" t="n">
-        <v>246.4967949491711</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>592.488949408469</v>
+        <v>662.0297778662967</v>
       </c>
       <c r="C11" t="n">
-        <v>592.488949408469</v>
+        <v>466.2139270241136</v>
       </c>
       <c r="D11" t="n">
-        <v>169.1963285934693</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="E11" t="n">
-        <v>169.1963285934693</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="F11" t="n">
-        <v>169.1963285934693</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G11" t="n">
-        <v>169.1963285934693</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H11" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I11" t="n">
-        <v>84.81242438636605</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J11" t="n">
-        <v>223.2074279870267</v>
+        <v>223.2074279870262</v>
       </c>
       <c r="K11" t="n">
-        <v>438.8706723956537</v>
+        <v>438.8706723956531</v>
       </c>
       <c r="L11" t="n">
-        <v>712.4165336350364</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M11" t="n">
         <v>1021.935294493278</v>
@@ -5059,34 +5059,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P11" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q11" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R11" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.58838481785</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T11" t="n">
-        <v>2087.58838481785</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="U11" t="n">
-        <v>1829.394582577361</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="V11" t="n">
-        <v>1829.394582577361</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="W11" t="n">
-        <v>1829.394582577361</v>
+        <v>1479.087046743659</v>
       </c>
       <c r="X11" t="n">
-        <v>1417.674583745109</v>
+        <v>1067.367047911406</v>
       </c>
       <c r="Y11" t="n">
-        <v>1012.337313699999</v>
+        <v>662.0297778662967</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G12" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H12" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I12" t="n">
-        <v>63.27049755628363</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J12" t="n">
-        <v>142.6397134696361</v>
+        <v>166.0970193140478</v>
       </c>
       <c r="K12" t="n">
-        <v>290.9945042260695</v>
+        <v>314.4518100704812</v>
       </c>
       <c r="L12" t="n">
-        <v>498.0032414541163</v>
+        <v>521.4605472985279</v>
       </c>
       <c r="M12" t="n">
-        <v>742.7181649058955</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N12" t="n">
-        <v>996.2513690082712</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O12" t="n">
-        <v>1481.172459650422</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R12" t="n">
         <v>1815.69702447452</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.7119575126096</v>
+        <v>764.3325201636535</v>
       </c>
       <c r="C13" t="n">
-        <v>531.7119575126096</v>
+        <v>592.3599570425695</v>
       </c>
       <c r="D13" t="n">
-        <v>368.3951846393803</v>
+        <v>429.0431841693402</v>
       </c>
       <c r="E13" t="n">
-        <v>202.1869787922339</v>
+        <v>262.8349783221937</v>
       </c>
       <c r="F13" t="n">
-        <v>202.1869787922339</v>
+        <v>90.97320409675413</v>
       </c>
       <c r="G13" t="n">
-        <v>202.1869787922339</v>
+        <v>90.97320409675413</v>
       </c>
       <c r="H13" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I13" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J13" t="n">
-        <v>85.08605645578095</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K13" t="n">
-        <v>167.1940898504029</v>
+        <v>245.1158064986236</v>
       </c>
       <c r="L13" t="n">
-        <v>277.1237959156386</v>
+        <v>731.4344061550241</v>
       </c>
       <c r="M13" t="n">
-        <v>553.7020787091487</v>
+        <v>1261.404819371307</v>
       </c>
       <c r="N13" t="n">
-        <v>1066.678219808201</v>
+        <v>1376.348037628479</v>
       </c>
       <c r="O13" t="n">
-        <v>1547.24833332177</v>
+        <v>1856.918151142048</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.928132214918</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q13" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R13" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S13" t="n">
-        <v>1985.251796590667</v>
+        <v>1985.251796590666</v>
       </c>
       <c r="T13" t="n">
-        <v>1745.772170375138</v>
+        <v>1985.251796590666</v>
       </c>
       <c r="U13" t="n">
-        <v>1465.636994916615</v>
+        <v>1705.116621132143</v>
       </c>
       <c r="V13" t="n">
-        <v>1465.636994916615</v>
+        <v>1423.405153740172</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.784591089128</v>
+        <v>1423.405153740172</v>
       </c>
       <c r="X13" t="n">
-        <v>948.2206945349332</v>
+        <v>1180.841257185977</v>
       </c>
       <c r="Y13" t="n">
-        <v>721.8779262246752</v>
+        <v>954.4984888757192</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>785.7162310790422</v>
+        <v>893.1146570108135</v>
       </c>
       <c r="C14" t="n">
-        <v>785.7162310790422</v>
+        <v>466.2139270241136</v>
       </c>
       <c r="D14" t="n">
-        <v>785.7162310790422</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="E14" t="n">
-        <v>359.7392912268998</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="F14" t="n">
-        <v>359.7392912268998</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G14" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H14" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I14" t="n">
-        <v>84.81242438636593</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J14" t="n">
-        <v>223.2074279870266</v>
+        <v>223.2074279870262</v>
       </c>
       <c r="K14" t="n">
-        <v>438.8706723956536</v>
+        <v>438.8706723956531</v>
       </c>
       <c r="L14" t="n">
-        <v>712.4165336350363</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M14" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N14" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O14" t="n">
         <v>1632.752137974935</v>
       </c>
       <c r="P14" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q14" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R14" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.58838481785</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T14" t="n">
-        <v>1875.478396443314</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="U14" t="n">
-        <v>1617.284594202825</v>
+        <v>1617.284594202824</v>
       </c>
       <c r="V14" t="n">
-        <v>1617.284594202825</v>
+        <v>1259.795179329073</v>
       </c>
       <c r="W14" t="n">
-        <v>1617.284594202825</v>
+        <v>1259.795179329073</v>
       </c>
       <c r="X14" t="n">
-        <v>1205.564595370572</v>
+        <v>1259.795179329073</v>
       </c>
       <c r="Y14" t="n">
-        <v>1205.564595370572</v>
+        <v>1259.795179329073</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G15" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H15" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I15" t="n">
-        <v>86.72780340069548</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J15" t="n">
-        <v>166.0970193140479</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K15" t="n">
-        <v>314.4518100704814</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L15" t="n">
-        <v>521.4605472985281</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M15" t="n">
-        <v>766.1754707503072</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.708674852683</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O15" t="n">
-        <v>1375.716959365516</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P15" t="n">
-        <v>1555.824378604757</v>
+        <v>1661.279878889663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1668.109549233739</v>
+        <v>1773.565049518645</v>
       </c>
       <c r="R15" t="n">
         <v>1815.69702447452</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>594.5587696587166</v>
+        <v>524.8528939481246</v>
       </c>
       <c r="C16" t="n">
-        <v>422.5862065376326</v>
+        <v>352.8803308270406</v>
       </c>
       <c r="D16" t="n">
-        <v>422.5862065376326</v>
+        <v>350.5478432151597</v>
       </c>
       <c r="E16" t="n">
-        <v>422.5862065376326</v>
+        <v>350.5478432151597</v>
       </c>
       <c r="F16" t="n">
-        <v>344.0396996073118</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="G16" t="n">
         <v>178.6860689897201</v>
       </c>
       <c r="H16" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I16" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J16" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K16" t="n">
-        <v>492.3984156126459</v>
+        <v>414.4766989644248</v>
       </c>
       <c r="L16" t="n">
-        <v>602.3281216778815</v>
+        <v>524.4064050296605</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.298534894165</v>
+        <v>640.8413377831222</v>
       </c>
       <c r="N16" t="n">
-        <v>1247.241753151337</v>
+        <v>1153.817478882174</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.621830699669</v>
+        <v>1634.387592395743</v>
       </c>
       <c r="P16" t="n">
-        <v>2096.301629592817</v>
+        <v>2032.067391288892</v>
       </c>
       <c r="Q16" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R16" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S16" t="n">
-        <v>2139.644107416679</v>
+        <v>1985.251796590666</v>
       </c>
       <c r="T16" t="n">
-        <v>1900.16448120115</v>
+        <v>1745.772170375137</v>
       </c>
       <c r="U16" t="n">
-        <v>1620.029305742628</v>
+        <v>1465.636994916614</v>
       </c>
       <c r="V16" t="n">
-        <v>1338.317838350657</v>
+        <v>1183.925527524643</v>
       </c>
       <c r="W16" t="n">
-        <v>1063.46543452317</v>
+        <v>1183.925527524643</v>
       </c>
       <c r="X16" t="n">
-        <v>820.9015379689746</v>
+        <v>941.3616309704481</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.5587696587166</v>
+        <v>715.0188626601902</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1270.531115940488</v>
+        <v>659.9117953917669</v>
       </c>
       <c r="C17" t="n">
-        <v>1270.531115940488</v>
+        <v>659.9117953917669</v>
       </c>
       <c r="D17" t="n">
-        <v>1270.531115940488</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="E17" t="n">
-        <v>844.5541760883453</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F17" t="n">
-        <v>445.2465290809261</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G17" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H17" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I17" t="n">
-        <v>84.81242438636582</v>
+        <v>84.81242438636605</v>
       </c>
       <c r="J17" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870266</v>
       </c>
       <c r="K17" t="n">
-        <v>438.8706723956536</v>
+        <v>438.8706723956535</v>
       </c>
       <c r="L17" t="n">
-        <v>712.4165336350363</v>
+        <v>712.416533635036</v>
       </c>
       <c r="M17" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N17" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O17" t="n">
-        <v>1632.752137974936</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P17" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q17" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R17" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T17" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="U17" t="n">
-        <v>2087.58838481785</v>
+        <v>1887.871508215203</v>
       </c>
       <c r="V17" t="n">
-        <v>2087.58838481785</v>
+        <v>1887.871508215203</v>
       </c>
       <c r="W17" t="n">
-        <v>2087.58838481785</v>
+        <v>1491.48015851555</v>
       </c>
       <c r="X17" t="n">
-        <v>1675.868385985597</v>
+        <v>1079.760159683297</v>
       </c>
       <c r="Y17" t="n">
-        <v>1270.531115940488</v>
+        <v>1079.760159683297</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G18" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H18" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I18" t="n">
-        <v>86.72780340069545</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J18" t="n">
-        <v>166.0970193140479</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K18" t="n">
-        <v>547.5929615662275</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L18" t="n">
-        <v>754.6016987942743</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M18" t="n">
-        <v>999.3166222460534</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N18" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O18" t="n">
-        <v>1481.172459650422</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R18" t="n">
         <v>1815.69702447452</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>679.646085048233</v>
+        <v>718.3174800203756</v>
       </c>
       <c r="C19" t="n">
-        <v>507.673521927149</v>
+        <v>546.3449168992915</v>
       </c>
       <c r="D19" t="n">
-        <v>507.673521927149</v>
+        <v>546.3449168992915</v>
       </c>
       <c r="E19" t="n">
-        <v>507.673521927149</v>
+        <v>380.1367110521451</v>
       </c>
       <c r="F19" t="n">
-        <v>335.8117477017094</v>
+        <v>208.2749368267055</v>
       </c>
       <c r="G19" t="n">
-        <v>170.4581170841177</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I19" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J19" t="n">
-        <v>85.08605645578095</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K19" t="n">
-        <v>167.1940898504029</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L19" t="n">
-        <v>653.5126895068036</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M19" t="n">
-        <v>769.9476222602652</v>
+        <v>1395.534104963558</v>
       </c>
       <c r="N19" t="n">
-        <v>1282.923763359317</v>
+        <v>1908.51024606261</v>
       </c>
       <c r="O19" t="n">
-        <v>1547.24833332177</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P19" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q19" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R19" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S19" t="n">
-        <v>1985.251796590667</v>
+        <v>1985.251796590666</v>
       </c>
       <c r="T19" t="n">
-        <v>1985.251796590667</v>
+        <v>1745.772170375137</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.116621132144</v>
+        <v>1691.390088262157</v>
       </c>
       <c r="V19" t="n">
-        <v>1423.405153740173</v>
+        <v>1409.678620870186</v>
       </c>
       <c r="W19" t="n">
-        <v>1148.552749912686</v>
+        <v>1134.826217042699</v>
       </c>
       <c r="X19" t="n">
-        <v>905.9888533584909</v>
+        <v>1134.826217042699</v>
       </c>
       <c r="Y19" t="n">
-        <v>679.646085048233</v>
+        <v>908.4834487324413</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1295.439879882626</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="C20" t="n">
-        <v>868.5391498959259</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D20" t="n">
-        <v>445.2465290809261</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E20" t="n">
-        <v>445.2465290809261</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F20" t="n">
-        <v>445.2465290809261</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G20" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H20" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I20" t="n">
-        <v>84.81242438636627</v>
+        <v>84.81242438636588</v>
       </c>
       <c r="J20" t="n">
-        <v>223.2074279870269</v>
+        <v>223.2074279870265</v>
       </c>
       <c r="K20" t="n">
-        <v>438.8706723956539</v>
+        <v>438.8706723956532</v>
       </c>
       <c r="L20" t="n">
-        <v>712.4165336350364</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M20" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N20" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O20" t="n">
         <v>1632.752137974935</v>
       </c>
       <c r="P20" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q20" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R20" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T20" t="n">
-        <v>1875.478396443313</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="U20" t="n">
-        <v>1617.284594202825</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="V20" t="n">
-        <v>1617.284594202825</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="W20" t="n">
-        <v>1295.439879882626</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="X20" t="n">
-        <v>1295.439879882626</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="Y20" t="n">
-        <v>1295.439879882626</v>
+        <v>2146.065310455691</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G21" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H21" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I21" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J21" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K21" t="n">
-        <v>290.9945042260694</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L21" t="n">
-        <v>754.6016987942749</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M21" t="n">
-        <v>999.3166222460538</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N21" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O21" t="n">
-        <v>1481.172459650423</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R21" t="n">
         <v>1815.69702447452</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.1664588327041</v>
+        <v>404.3928009466501</v>
       </c>
       <c r="C22" t="n">
-        <v>380.9912862816999</v>
+        <v>232.4202378255661</v>
       </c>
       <c r="D22" t="n">
-        <v>380.9912862816999</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="E22" t="n">
         <v>214.7830804345534</v>
       </c>
       <c r="F22" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G22" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H22" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I22" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J22" t="n">
         <v>163.0077731040018</v>
@@ -5916,46 +5916,46 @@
         <v>492.3984156126457</v>
       </c>
       <c r="L22" t="n">
-        <v>602.3281216778814</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M22" t="n">
-        <v>718.7630544313431</v>
+        <v>1508.68742848533</v>
       </c>
       <c r="N22" t="n">
-        <v>1066.678219808201</v>
+        <v>1908.51024606261</v>
       </c>
       <c r="O22" t="n">
-        <v>1547.24833332177</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P22" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q22" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R22" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S22" t="n">
-        <v>1985.251796590667</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T22" t="n">
-        <v>1745.772170375138</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="U22" t="n">
-        <v>1465.636994916615</v>
+        <v>1620.029305742627</v>
       </c>
       <c r="V22" t="n">
-        <v>1183.925527524644</v>
+        <v>1338.317838350656</v>
       </c>
       <c r="W22" t="n">
-        <v>909.0731236971569</v>
+        <v>1063.465434523169</v>
       </c>
       <c r="X22" t="n">
-        <v>666.509227142962</v>
+        <v>820.9015379689737</v>
       </c>
       <c r="Y22" t="n">
-        <v>440.1664588327041</v>
+        <v>594.5587696587157</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1293.663331706526</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="C23" t="n">
-        <v>1293.663331706526</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D23" t="n">
-        <v>870.370710891526</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E23" t="n">
-        <v>870.370710891526</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F23" t="n">
-        <v>445.2465290809261</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G23" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H23" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I23" t="n">
         <v>84.81242438636582</v>
@@ -5992,10 +5992,10 @@
         <v>223.2074279870264</v>
       </c>
       <c r="K23" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L23" t="n">
-        <v>712.4165336350361</v>
+        <v>712.416533635036</v>
       </c>
       <c r="M23" t="n">
         <v>1021.935294493278</v>
@@ -6007,34 +6007,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P23" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q23" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R23" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T23" t="n">
-        <v>2087.58838481785</v>
+        <v>2002.409580914044</v>
       </c>
       <c r="U23" t="n">
-        <v>1829.394582577361</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="V23" t="n">
-        <v>1829.394582577361</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="W23" t="n">
-        <v>1713.511695998056</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="X23" t="n">
-        <v>1713.511695998056</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="Y23" t="n">
-        <v>1713.511695998056</v>
+        <v>1744.215778673556</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G24" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H24" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I24" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J24" t="n">
-        <v>142.6397134696361</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K24" t="n">
-        <v>290.9945042260695</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L24" t="n">
-        <v>498.0032414541163</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M24" t="n">
-        <v>742.7181649058954</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N24" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O24" t="n">
-        <v>1481.172459650422</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P24" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R24" t="n">
         <v>1815.69702447452</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>489.4801163361673</v>
+        <v>404.3928009466501</v>
       </c>
       <c r="C25" t="n">
-        <v>317.5075532150834</v>
+        <v>232.4202378255661</v>
       </c>
       <c r="D25" t="n">
-        <v>317.5075532150834</v>
+        <v>232.4202378255661</v>
       </c>
       <c r="E25" t="n">
-        <v>317.5075532150834</v>
+        <v>232.4202378255661</v>
       </c>
       <c r="F25" t="n">
-        <v>317.5075532150834</v>
+        <v>60.55846360012652</v>
       </c>
       <c r="G25" t="n">
-        <v>178.6860689897201</v>
+        <v>60.55846360012652</v>
       </c>
       <c r="H25" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I25" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J25" t="n">
-        <v>85.08605645578095</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K25" t="n">
-        <v>328.65087060249</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L25" t="n">
-        <v>814.9694702588906</v>
+        <v>487.861367444071</v>
       </c>
       <c r="M25" t="n">
-        <v>931.4044030123523</v>
+        <v>1017.831780660355</v>
       </c>
       <c r="N25" t="n">
-        <v>1444.380544111404</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O25" t="n">
-        <v>1547.24833332177</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P25" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q25" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R25" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S25" t="n">
-        <v>1985.251796590667</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T25" t="n">
-        <v>1985.251796590667</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.116621132144</v>
+        <v>1620.029305742627</v>
       </c>
       <c r="V25" t="n">
-        <v>1423.405153740173</v>
+        <v>1338.317838350656</v>
       </c>
       <c r="W25" t="n">
-        <v>1148.552749912686</v>
+        <v>1063.465434523169</v>
       </c>
       <c r="X25" t="n">
-        <v>905.9888533584909</v>
+        <v>820.9015379689737</v>
       </c>
       <c r="Y25" t="n">
-        <v>679.646085048233</v>
+        <v>594.5587696587157</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>800.2273253254626</v>
+        <v>1682.251114772739</v>
       </c>
       <c r="C26" t="n">
-        <v>800.2273253254626</v>
+        <v>1255.350384786039</v>
       </c>
       <c r="D26" t="n">
-        <v>376.9347045104629</v>
+        <v>1255.350384786039</v>
       </c>
       <c r="E26" t="n">
-        <v>376.9347045104629</v>
+        <v>1147.614855241379</v>
       </c>
       <c r="F26" t="n">
-        <v>42.92130620911384</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="G26" t="n">
-        <v>42.92130620911384</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H26" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I26" t="n">
         <v>84.8124243863659</v>
@@ -6232,7 +6232,7 @@
         <v>438.8706723956534</v>
       </c>
       <c r="L26" t="n">
-        <v>712.4165336350361</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M26" t="n">
         <v>1021.935294493278</v>
@@ -6250,28 +6250,28 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R26" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.58838481785</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T26" t="n">
-        <v>1875.478396443314</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U26" t="n">
-        <v>1617.284594202825</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V26" t="n">
-        <v>1617.284594202825</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W26" t="n">
-        <v>1617.284594202825</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="X26" t="n">
-        <v>1205.564595370572</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="Y26" t="n">
-        <v>800.2273253254626</v>
+        <v>1682.251114772739</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G27" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H27" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I27" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J27" t="n">
-        <v>142.6397134696361</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K27" t="n">
-        <v>290.9945042260695</v>
+        <v>314.4518100704813</v>
       </c>
       <c r="L27" t="n">
-        <v>498.0032414541162</v>
+        <v>521.460547298528</v>
       </c>
       <c r="M27" t="n">
-        <v>999.3166222460535</v>
+        <v>766.1754707503071</v>
       </c>
       <c r="N27" t="n">
-        <v>1252.849826348429</v>
+        <v>1019.708674852683</v>
       </c>
       <c r="O27" t="n">
-        <v>1481.172459650422</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P27" t="n">
-        <v>1661.279878889663</v>
+        <v>1428.138727393916</v>
       </c>
       <c r="Q27" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R27" t="n">
         <v>1815.69702447452</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.5646783276876</v>
+        <v>827.3227410079868</v>
       </c>
       <c r="C28" t="n">
-        <v>673.5646783276876</v>
+        <v>827.3227410079868</v>
       </c>
       <c r="D28" t="n">
-        <v>510.2479054544583</v>
+        <v>664.0059681347575</v>
       </c>
       <c r="E28" t="n">
-        <v>344.0396996073118</v>
+        <v>515.9014738327513</v>
       </c>
       <c r="F28" t="n">
         <v>344.0396996073118</v>
@@ -6378,58 +6378,58 @@
         <v>178.6860689897201</v>
       </c>
       <c r="H28" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I28" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J28" t="n">
-        <v>85.08605645578092</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K28" t="n">
-        <v>313.1483129815484</v>
+        <v>245.1158064986237</v>
       </c>
       <c r="L28" t="n">
-        <v>799.466912637949</v>
+        <v>355.0455125638593</v>
       </c>
       <c r="M28" t="n">
-        <v>1329.437325854233</v>
+        <v>885.0159257801429</v>
       </c>
       <c r="N28" t="n">
-        <v>1444.380544111404</v>
+        <v>1397.992066879195</v>
       </c>
       <c r="O28" t="n">
-        <v>1547.24833332177</v>
+        <v>1878.562180392764</v>
       </c>
       <c r="P28" t="n">
-        <v>1944.928132214918</v>
+        <v>1963.485774712605</v>
       </c>
       <c r="Q28" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R28" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S28" t="n">
-        <v>1985.251796590667</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T28" t="n">
-        <v>1745.772170375138</v>
+        <v>1906.585684240162</v>
       </c>
       <c r="U28" t="n">
-        <v>1465.636994916615</v>
+        <v>1626.45050878164</v>
       </c>
       <c r="V28" t="n">
-        <v>1465.636994916615</v>
+        <v>1344.739041389669</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.784591089128</v>
+        <v>1069.886637562182</v>
       </c>
       <c r="X28" t="n">
-        <v>948.2206945349332</v>
+        <v>827.3227410079868</v>
       </c>
       <c r="Y28" t="n">
-        <v>721.8779262246752</v>
+        <v>827.3227410079868</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>468.0454880197136</v>
+        <v>1075.513818003957</v>
       </c>
       <c r="C29" t="n">
-        <v>468.0454880197136</v>
+        <v>1075.513818003957</v>
       </c>
       <c r="D29" t="n">
-        <v>468.0454880197136</v>
+        <v>652.2211971889576</v>
       </c>
       <c r="E29" t="n">
-        <v>468.0454880197136</v>
+        <v>652.2211971889576</v>
       </c>
       <c r="F29" t="n">
-        <v>42.92130620911384</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="G29" t="n">
-        <v>42.92130620911384</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H29" t="n">
         <v>42.92130620911384</v>
       </c>
       <c r="I29" t="n">
-        <v>84.8124243863659</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J29" t="n">
-        <v>223.2074279870265</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K29" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L29" t="n">
-        <v>712.4165336350366</v>
+        <v>712.416533635036</v>
       </c>
       <c r="M29" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N29" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O29" t="n">
         <v>1632.752137974936</v>
@@ -6490,25 +6490,25 @@
         <v>2146.065310455692</v>
       </c>
       <c r="S29" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T29" t="n">
-        <v>1933.955322081156</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U29" t="n">
-        <v>1933.955322081156</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="V29" t="n">
-        <v>1576.465907207405</v>
+        <v>1471.90516770361</v>
       </c>
       <c r="W29" t="n">
-        <v>1576.465907207405</v>
+        <v>1075.513818003957</v>
       </c>
       <c r="X29" t="n">
-        <v>1293.231122356353</v>
+        <v>1075.513818003957</v>
       </c>
       <c r="Y29" t="n">
-        <v>887.8938523112437</v>
+        <v>1075.513818003957</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>42.92130620911384</v>
       </c>
       <c r="I30" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J30" t="n">
-        <v>142.6397134696361</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K30" t="n">
-        <v>290.9945042260695</v>
+        <v>314.4518100704813</v>
       </c>
       <c r="L30" t="n">
-        <v>498.0032414541162</v>
+        <v>521.460547298528</v>
       </c>
       <c r="M30" t="n">
-        <v>742.7181649058953</v>
+        <v>766.1754707503071</v>
       </c>
       <c r="N30" t="n">
-        <v>996.2513690082709</v>
+        <v>1019.708674852683</v>
       </c>
       <c r="O30" t="n">
-        <v>1481.172459650422</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P30" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q30" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R30" t="n">
         <v>1815.69702447452</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.0122627283959</v>
+        <v>637.1567722959221</v>
       </c>
       <c r="C31" t="n">
-        <v>344.0396996073118</v>
+        <v>465.1842091748381</v>
       </c>
       <c r="D31" t="n">
-        <v>344.0396996073118</v>
+        <v>301.8674363016088</v>
       </c>
       <c r="E31" t="n">
-        <v>344.0396996073118</v>
+        <v>301.8674363016088</v>
       </c>
       <c r="F31" t="n">
-        <v>344.0396996073118</v>
+        <v>130.0056620761692</v>
       </c>
       <c r="G31" t="n">
-        <v>178.6860689897201</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="H31" t="n">
-        <v>42.92130620911384</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="I31" t="n">
         <v>42.92130620911384</v>
       </c>
       <c r="J31" t="n">
-        <v>85.08605645578092</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K31" t="n">
-        <v>167.1940898504028</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L31" t="n">
-        <v>653.5126895068034</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M31" t="n">
-        <v>866.4582832824565</v>
+        <v>1244.16060758566</v>
       </c>
       <c r="N31" t="n">
-        <v>1379.434424381509</v>
+        <v>1757.136748684712</v>
       </c>
       <c r="O31" t="n">
         <v>1860.004537895078</v>
@@ -6645,28 +6645,28 @@
         <v>2146.065310455692</v>
       </c>
       <c r="R31" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S31" t="n">
-        <v>1985.251796590667</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T31" t="n">
-        <v>1745.772170375138</v>
+        <v>1906.585684240163</v>
       </c>
       <c r="U31" t="n">
-        <v>1465.636994916615</v>
+        <v>1626.450508781641</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.925527524644</v>
+        <v>1344.73904138967</v>
       </c>
       <c r="W31" t="n">
-        <v>1175.084896304914</v>
+        <v>1069.886637562183</v>
       </c>
       <c r="X31" t="n">
-        <v>932.5209997507195</v>
+        <v>827.3227410079877</v>
       </c>
       <c r="Y31" t="n">
-        <v>706.1782314404616</v>
+        <v>827.3227410079877</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>447.8018070172313</v>
+        <v>1262.40275048121</v>
       </c>
       <c r="C32" t="n">
-        <v>447.8018070172313</v>
+        <v>1262.40275048121</v>
       </c>
       <c r="D32" t="n">
-        <v>447.8018070172313</v>
+        <v>839.1101296662102</v>
       </c>
       <c r="E32" t="n">
-        <v>42.92130620911384</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F32" t="n">
         <v>42.92130620911384</v>
@@ -6703,22 +6703,22 @@
         <v>223.2074279870265</v>
       </c>
       <c r="K32" t="n">
-        <v>438.8706723956539</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L32" t="n">
-        <v>712.4165336350366</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M32" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N32" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O32" t="n">
-        <v>1632.752137974936</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P32" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q32" t="n">
         <v>2056.763172699935</v>
@@ -6727,25 +6727,25 @@
         <v>2146.065310455692</v>
       </c>
       <c r="S32" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T32" t="n">
-        <v>1933.955322081156</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U32" t="n">
-        <v>1675.761519840667</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="V32" t="n">
-        <v>1675.761519840667</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="W32" t="n">
-        <v>1279.370170141014</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="X32" t="n">
-        <v>867.6501713087614</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="Y32" t="n">
-        <v>867.6501713087614</v>
+        <v>1682.25111477274</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>42.92130620911384</v>
       </c>
       <c r="I33" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J33" t="n">
-        <v>142.6397134696361</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K33" t="n">
-        <v>290.9945042260695</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L33" t="n">
-        <v>498.0032414541162</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M33" t="n">
-        <v>742.7181649058953</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N33" t="n">
-        <v>996.2513690082709</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O33" t="n">
-        <v>1481.172459650422</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P33" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q33" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R33" t="n">
         <v>1815.69702447452</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>492.5643866748333</v>
+        <v>404.392800946651</v>
       </c>
       <c r="C34" t="n">
-        <v>492.5643866748333</v>
+        <v>232.420237825567</v>
       </c>
       <c r="D34" t="n">
-        <v>492.5643866748333</v>
+        <v>232.420237825567</v>
       </c>
       <c r="E34" t="n">
-        <v>492.5643866748333</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="F34" t="n">
-        <v>320.7026124493938</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G34" t="n">
-        <v>155.3489818318021</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H34" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I34" t="n">
         <v>42.92130620911384</v>
       </c>
       <c r="J34" t="n">
-        <v>85.08605645578092</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K34" t="n">
-        <v>167.1940898504028</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L34" t="n">
-        <v>421.7645883347456</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M34" t="n">
-        <v>951.7350015510291</v>
+        <v>1395.534104963559</v>
       </c>
       <c r="N34" t="n">
-        <v>1066.678219808201</v>
+        <v>1908.510246062611</v>
       </c>
       <c r="O34" t="n">
-        <v>1547.24833332177</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P34" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q34" t="n">
         <v>2146.065310455692</v>
@@ -6885,25 +6885,25 @@
         <v>2139.644107416679</v>
       </c>
       <c r="S34" t="n">
-        <v>1985.251796590667</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="T34" t="n">
-        <v>1745.772170375138</v>
+        <v>1900.16448120115</v>
       </c>
       <c r="U34" t="n">
-        <v>1465.636994916615</v>
+        <v>1620.029305742628</v>
       </c>
       <c r="V34" t="n">
-        <v>1183.925527524644</v>
+        <v>1338.317838350657</v>
       </c>
       <c r="W34" t="n">
-        <v>909.0731236971569</v>
+        <v>1063.46543452317</v>
       </c>
       <c r="X34" t="n">
-        <v>909.0731236971569</v>
+        <v>820.9015379689746</v>
       </c>
       <c r="Y34" t="n">
-        <v>682.730355386899</v>
+        <v>594.5587696587166</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>42.92130620911384</v>
       </c>
       <c r="I35" t="n">
-        <v>84.81242438636559</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J35" t="n">
         <v>223.2074279870262</v>
@@ -6967,16 +6967,16 @@
         <v>2087.58838481785</v>
       </c>
       <c r="T35" t="n">
-        <v>2087.58838481785</v>
+        <v>1955.721398033208</v>
       </c>
       <c r="U35" t="n">
-        <v>2087.58838481785</v>
+        <v>1697.527595792719</v>
       </c>
       <c r="V35" t="n">
-        <v>1730.0989699441</v>
+        <v>1697.527595792719</v>
       </c>
       <c r="W35" t="n">
-        <v>1712.856244925319</v>
+        <v>1301.136246093066</v>
       </c>
       <c r="X35" t="n">
         <v>1301.136246093066</v>
@@ -7016,28 +7016,28 @@
         <v>86.72780340069545</v>
       </c>
       <c r="J36" t="n">
-        <v>166.0970193140479</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K36" t="n">
-        <v>314.4518100704813</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L36" t="n">
-        <v>521.4605472985281</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M36" t="n">
-        <v>766.1754707503071</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N36" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O36" t="n">
-        <v>1481.172459650422</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R36" t="n">
         <v>1815.69702447452</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>378.2106422034271</v>
+        <v>538.1331605516227</v>
       </c>
       <c r="C37" t="n">
-        <v>206.2380790823431</v>
+        <v>366.1605974305387</v>
       </c>
       <c r="D37" t="n">
-        <v>42.92130620911384</v>
+        <v>366.1605974305387</v>
       </c>
       <c r="E37" t="n">
-        <v>42.92130620911384</v>
+        <v>366.1605974305387</v>
       </c>
       <c r="F37" t="n">
-        <v>42.92130620911384</v>
+        <v>194.2988232050991</v>
       </c>
       <c r="G37" t="n">
         <v>42.92130620911384</v>
@@ -7095,22 +7095,22 @@
         <v>42.92130620911384</v>
       </c>
       <c r="J37" t="n">
-        <v>85.08605645578092</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K37" t="n">
-        <v>167.1940898504028</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L37" t="n">
-        <v>277.1237959156385</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M37" t="n">
-        <v>705.0755760870477</v>
+        <v>1508.68742848533</v>
       </c>
       <c r="N37" t="n">
-        <v>1218.0517171861</v>
+        <v>1908.510246062611</v>
       </c>
       <c r="O37" t="n">
-        <v>1698.621830699669</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P37" t="n">
         <v>2096.301629592817</v>
@@ -7119,28 +7119,28 @@
         <v>2146.065310455692</v>
       </c>
       <c r="R37" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S37" t="n">
-        <v>1985.251796590667</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T37" t="n">
-        <v>1745.772170375138</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U37" t="n">
-        <v>1465.636994916615</v>
+        <v>1472.058197955628</v>
       </c>
       <c r="V37" t="n">
-        <v>1183.925527524644</v>
+        <v>1472.058197955628</v>
       </c>
       <c r="W37" t="n">
-        <v>909.0731236971569</v>
+        <v>1197.205794128141</v>
       </c>
       <c r="X37" t="n">
-        <v>666.509227142962</v>
+        <v>954.6418975739463</v>
       </c>
       <c r="Y37" t="n">
-        <v>440.1664588327041</v>
+        <v>728.2991292636883</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>746.1423904111098</v>
+        <v>1572.684024232479</v>
       </c>
       <c r="C38" t="n">
-        <v>746.1423904111098</v>
+        <v>1145.783294245779</v>
       </c>
       <c r="D38" t="n">
-        <v>746.1423904111098</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="E38" t="n">
-        <v>320.1654505589673</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="F38" t="n">
-        <v>320.1654505589673</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="G38" t="n">
         <v>320.1654505589673</v>
@@ -7171,22 +7171,22 @@
         <v>42.92130620911384</v>
       </c>
       <c r="I38" t="n">
-        <v>84.81242438636559</v>
+        <v>84.81242438636627</v>
       </c>
       <c r="J38" t="n">
-        <v>223.2074279870262</v>
+        <v>223.2074279870269</v>
       </c>
       <c r="K38" t="n">
-        <v>438.8706723956532</v>
+        <v>438.8706723956539</v>
       </c>
       <c r="L38" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350364</v>
       </c>
       <c r="M38" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N38" t="n">
-        <v>1337.212136355668</v>
+        <v>1337.212136355669</v>
       </c>
       <c r="O38" t="n">
         <v>1632.752137974935</v>
@@ -7204,22 +7204,22 @@
         <v>2146.065310455692</v>
       </c>
       <c r="T38" t="n">
-        <v>1933.955322081156</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="U38" t="n">
-        <v>1675.761519840667</v>
+        <v>1887.871508215204</v>
       </c>
       <c r="V38" t="n">
-        <v>1675.761519840667</v>
+        <v>1572.684024232479</v>
       </c>
       <c r="W38" t="n">
-        <v>1279.370170141014</v>
+        <v>1572.684024232479</v>
       </c>
       <c r="X38" t="n">
-        <v>1151.479660456219</v>
+        <v>1572.684024232479</v>
       </c>
       <c r="Y38" t="n">
-        <v>746.1423904111098</v>
+        <v>1572.684024232479</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.92130620911384</v>
       </c>
       <c r="I39" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J39" t="n">
-        <v>142.6397134696361</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K39" t="n">
-        <v>290.9945042260695</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L39" t="n">
-        <v>498.0032414541162</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M39" t="n">
-        <v>742.7181649058953</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N39" t="n">
-        <v>996.2513690082709</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.574002310264</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R39" t="n">
         <v>1815.69702447452</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>476.3432584308964</v>
+        <v>386.7556435556374</v>
       </c>
       <c r="C40" t="n">
-        <v>304.3706953098124</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="D40" t="n">
-        <v>141.0539224365831</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="E40" t="n">
-        <v>141.0539224365831</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="F40" t="n">
         <v>42.92130620911384</v>
@@ -7332,22 +7332,22 @@
         <v>42.92130620911384</v>
       </c>
       <c r="J40" t="n">
-        <v>85.08605645578092</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K40" t="n">
-        <v>167.1940898504028</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L40" t="n">
-        <v>277.1237959156385</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M40" t="n">
-        <v>705.0755760870477</v>
+        <v>1508.68742848533</v>
       </c>
       <c r="N40" t="n">
-        <v>1218.0517171861</v>
+        <v>1908.510246062611</v>
       </c>
       <c r="O40" t="n">
-        <v>1698.621830699669</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P40" t="n">
         <v>2096.301629592817</v>
@@ -7356,28 +7356,28 @@
         <v>2146.065310455692</v>
       </c>
       <c r="R40" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S40" t="n">
-        <v>1985.251796590667</v>
+        <v>2122.006950025665</v>
       </c>
       <c r="T40" t="n">
-        <v>1745.772170375138</v>
+        <v>1882.527323810137</v>
       </c>
       <c r="U40" t="n">
-        <v>1465.636994916615</v>
+        <v>1602.392148351614</v>
       </c>
       <c r="V40" t="n">
-        <v>1183.925527524644</v>
+        <v>1320.680680959643</v>
       </c>
       <c r="W40" t="n">
-        <v>909.0731236971569</v>
+        <v>1045.828277132156</v>
       </c>
       <c r="X40" t="n">
-        <v>666.509227142962</v>
+        <v>803.264380577961</v>
       </c>
       <c r="Y40" t="n">
-        <v>666.509227142962</v>
+        <v>576.921612267703</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>858.7042509633048</v>
+        <v>1333.707620244446</v>
       </c>
       <c r="C41" t="n">
-        <v>858.7042509633048</v>
+        <v>906.8068902577461</v>
       </c>
       <c r="D41" t="n">
-        <v>435.4116301483051</v>
+        <v>483.5142694427464</v>
       </c>
       <c r="E41" t="n">
-        <v>435.4116301483051</v>
+        <v>483.5142694427464</v>
       </c>
       <c r="F41" t="n">
-        <v>320.1654505589673</v>
+        <v>483.5142694427464</v>
       </c>
       <c r="G41" t="n">
-        <v>320.1654505589673</v>
+        <v>81.18904657093407</v>
       </c>
       <c r="H41" t="n">
         <v>42.92130620911384</v>
@@ -7438,25 +7438,25 @@
         <v>2146.065310455692</v>
       </c>
       <c r="S41" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T41" t="n">
-        <v>1933.955322081156</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U41" t="n">
-        <v>1675.761519840667</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="V41" t="n">
-        <v>1675.761519840667</v>
+        <v>1730.098969944099</v>
       </c>
       <c r="W41" t="n">
-        <v>1675.761519840667</v>
+        <v>1333.707620244446</v>
       </c>
       <c r="X41" t="n">
-        <v>1264.041521008415</v>
+        <v>1333.707620244446</v>
       </c>
       <c r="Y41" t="n">
-        <v>858.7042509633048</v>
+        <v>1333.707620244446</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>63.27049755628362</v>
       </c>
       <c r="J42" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K42" t="n">
-        <v>290.9945042260694</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L42" t="n">
-        <v>498.0032414541162</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M42" t="n">
-        <v>742.7181649058953</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N42" t="n">
-        <v>996.2513690082708</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O42" t="n">
-        <v>1224.574002310264</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P42" t="n">
-        <v>1404.681421549504</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R42" t="n">
         <v>1815.69702447452</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>852.0453850566195</v>
+        <v>256.4216931596515</v>
       </c>
       <c r="C43" t="n">
-        <v>680.0728219355354</v>
+        <v>84.44913003856752</v>
       </c>
       <c r="D43" t="n">
-        <v>516.7560490623061</v>
+        <v>84.44913003856752</v>
       </c>
       <c r="E43" t="n">
-        <v>350.5478432151597</v>
+        <v>84.44913003856752</v>
       </c>
       <c r="F43" t="n">
-        <v>178.6860689897201</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G43" t="n">
-        <v>178.6860689897201</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H43" t="n">
         <v>42.92130620911384</v>
@@ -7572,22 +7572,22 @@
         <v>163.0077731040018</v>
       </c>
       <c r="K43" t="n">
-        <v>492.3984156126457</v>
+        <v>245.1158064986237</v>
       </c>
       <c r="L43" t="n">
-        <v>602.3281216778814</v>
+        <v>487.8613674440719</v>
       </c>
       <c r="M43" t="n">
-        <v>718.7630544313431</v>
+        <v>1017.831780660355</v>
       </c>
       <c r="N43" t="n">
-        <v>1231.739195530395</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O43" t="n">
-        <v>1547.24833332177</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P43" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q43" t="n">
         <v>2146.065310455692</v>
@@ -7596,25 +7596,25 @@
         <v>2146.065310455692</v>
       </c>
       <c r="S43" t="n">
-        <v>2146.065310455692</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T43" t="n">
-        <v>1906.585684240163</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U43" t="n">
-        <v>1626.450508781641</v>
+        <v>1472.058197955628</v>
       </c>
       <c r="V43" t="n">
-        <v>1543.40652590643</v>
+        <v>1190.346730563657</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.554122078943</v>
+        <v>915.49432673617</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.554122078943</v>
+        <v>672.9304301819751</v>
       </c>
       <c r="Y43" t="n">
-        <v>1042.211353768685</v>
+        <v>446.5876618717172</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>924.4883264193993</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="C44" t="n">
-        <v>870.370710891526</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D44" t="n">
-        <v>870.370710891526</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E44" t="n">
-        <v>870.370710891526</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F44" t="n">
-        <v>445.2465290809261</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G44" t="n">
         <v>42.92130620911384</v>
@@ -7651,22 +7651,22 @@
         <v>223.2074279870265</v>
       </c>
       <c r="K44" t="n">
-        <v>438.8706723956539</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L44" t="n">
-        <v>712.4165336350366</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M44" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N44" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O44" t="n">
-        <v>1632.752137974936</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P44" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q44" t="n">
         <v>2056.763172699935</v>
@@ -7675,25 +7675,25 @@
         <v>2146.065310455692</v>
       </c>
       <c r="S44" t="n">
-        <v>2146.065310455692</v>
+        <v>2101.705193547306</v>
       </c>
       <c r="T44" t="n">
-        <v>2146.065310455692</v>
+        <v>2101.705193547306</v>
       </c>
       <c r="U44" t="n">
-        <v>2146.065310455692</v>
+        <v>2101.705193547306</v>
       </c>
       <c r="V44" t="n">
-        <v>2146.065310455692</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="W44" t="n">
-        <v>1749.673960756039</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="X44" t="n">
-        <v>1749.673960756039</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="Y44" t="n">
-        <v>1344.336690710929</v>
+        <v>1744.215778673556</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>928.9292107482974</v>
+        <v>598.5609247671249</v>
       </c>
       <c r="C45" t="n">
-        <v>811.4233072658021</v>
+        <v>481.0550212846297</v>
       </c>
       <c r="D45" t="n">
-        <v>707.5833487810871</v>
+        <v>377.2150627999147</v>
       </c>
       <c r="E45" t="n">
-        <v>602.8814150540244</v>
+        <v>272.5131290728519</v>
       </c>
       <c r="F45" t="n">
-        <v>509.2355847369286</v>
+        <v>178.8672987557561</v>
       </c>
       <c r="G45" t="n">
-        <v>416.259312100189</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H45" t="n">
-        <v>373.2895921902863</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I45" t="n">
-        <v>393.6387835374561</v>
+        <v>63.27049755628362</v>
       </c>
       <c r="J45" t="n">
-        <v>473.0079994508085</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K45" t="n">
-        <v>621.3627902072419</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L45" t="n">
-        <v>828.3715274352886</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M45" t="n">
-        <v>1073.086450887068</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N45" t="n">
-        <v>1326.619654989443</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O45" t="n">
-        <v>1811.540745631595</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P45" t="n">
-        <v>1991.648164870835</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q45" t="n">
-        <v>2103.933335499818</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R45" t="n">
-        <v>2146.065310455692</v>
+        <v>1815.69702447452</v>
       </c>
       <c r="S45" t="n">
-        <v>2084.755137060171</v>
+        <v>1754.386851078999</v>
       </c>
       <c r="T45" t="n">
-        <v>1947.218279054597</v>
+        <v>1616.849993073424</v>
       </c>
       <c r="U45" t="n">
-        <v>1762.520971075921</v>
+        <v>1432.152685094749</v>
       </c>
       <c r="V45" t="n">
-        <v>1557.547832215188</v>
+        <v>1227.179546234015</v>
       </c>
       <c r="W45" t="n">
-        <v>1361.026455048405</v>
+        <v>1030.658169067232</v>
       </c>
       <c r="X45" t="n">
-        <v>1197.549108815068</v>
+        <v>867.1808228338953</v>
       </c>
       <c r="Y45" t="n">
-        <v>1057.85622016836</v>
+        <v>727.4879341871876</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>746.1673765538944</v>
+        <v>954.2369511198118</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1673765538944</v>
+        <v>782.2643879987278</v>
       </c>
       <c r="D46" t="n">
-        <v>582.8506036806651</v>
+        <v>618.9476151254985</v>
       </c>
       <c r="E46" t="n">
-        <v>416.6423978335187</v>
+        <v>452.739409278352</v>
       </c>
       <c r="F46" t="n">
-        <v>416.6423978335187</v>
+        <v>280.8776350529124</v>
       </c>
       <c r="G46" t="n">
-        <v>251.288767215927</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="H46" t="n">
         <v>115.5240044353207</v>
@@ -7809,49 +7809,49 @@
         <v>85.08605645578092</v>
       </c>
       <c r="K46" t="n">
-        <v>348.9814691411668</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L46" t="n">
-        <v>835.3000687975674</v>
+        <v>487.8613674440719</v>
       </c>
       <c r="M46" t="n">
-        <v>951.7350015510291</v>
+        <v>1017.831780660355</v>
       </c>
       <c r="N46" t="n">
-        <v>1066.678219808201</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O46" t="n">
-        <v>1547.24833332177</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P46" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q46" t="n">
         <v>2146.065310455692</v>
       </c>
       <c r="R46" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S46" t="n">
-        <v>1985.251796590667</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T46" t="n">
-        <v>1745.772170375138</v>
+        <v>1906.585684240163</v>
       </c>
       <c r="U46" t="n">
-        <v>1745.772170375138</v>
+        <v>1906.585684240163</v>
       </c>
       <c r="V46" t="n">
-        <v>1464.060702983166</v>
+        <v>1888.161988523817</v>
       </c>
       <c r="W46" t="n">
-        <v>1215.074041418347</v>
+        <v>1613.30958469633</v>
       </c>
       <c r="X46" t="n">
-        <v>972.5101448641524</v>
+        <v>1370.745688142135</v>
       </c>
       <c r="Y46" t="n">
-        <v>746.1673765538944</v>
+        <v>1144.402919831877</v>
       </c>
     </row>
   </sheetData>
@@ -8224,7 +8224,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M5" t="n">
-        <v>10.50014909015128</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N5" t="n">
         <v>9.912735448118685</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13.34699725816537</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J6" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K6" t="n">
-        <v>9.147977155514766</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L6" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M6" t="n">
-        <v>2.30407338579462</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P6" t="n">
-        <v>6.100547230880082</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q6" t="n">
         <v>12.27186175772305</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>128.9754052634761</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>259.1903609496544</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>161.7609596364125</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>3.117562376796357</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>259.1903609496554</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>128.9754052634752</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9093,19 +9093,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>352.0326144827937</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.88306899386316</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>128.9754052634761</v>
       </c>
       <c r="K18" t="n">
-        <v>235.4961126219658</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>303.4163201424746</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0876573253404</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>259.1903609496553</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>235.3251991107939</v>
+        <v>287.7571710304123</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>259.1903609496546</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>163.0876573253405</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>212.8662338671035</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>259.1903609496547</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>128.9754052634759</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>147.4285082132783</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>134.157429171931</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>259.1903609496548</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>128.9754052634758</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>97.48551618403164</v>
+        <v>150.5137975385371</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>259.1903609496548</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>146.1018105243505</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>303.4163201424755</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>235.4961126219661</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>314.663482240351</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>287.7571710304133</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>259.190360949655</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>314.663482240351</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>287.7571710304133</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>152.6696535911648</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>259.1903609496552</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>134.1574291719319</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>214.7892409909184</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>152.6696535911648</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>259.1903609496554</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>183.6236154452162</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>212.8662338671045</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.142297892192675</v>
+        <v>0.142297892192687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>228.7740303530715</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>398.3019706430941</v>
       </c>
       <c r="H11" t="n">
-        <v>149.459430745843</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H13" t="n">
-        <v>48.61077053945614</v>
+        <v>86.8357362440363</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>52.63616355353776</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>84.65216547548602</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H14" t="n">
         <v>274.4717029063549</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>159.3744424087349</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>92.38211462216755</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.8766712439448</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>229.112050308517</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>25.55836945514875</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H17" t="n">
         <v>274.4717029063549</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T17" t="n">
         <v>209.9888884907911</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>80.02234363049118</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>223.4955624120877</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>17.81884418430036</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H20" t="n">
         <v>274.4717029063549</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>73.80116902565976</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>111.669416664379</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>144.2228193273944</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H23" t="n">
         <v>274.4717029063549</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T23" t="n">
-        <v>209.9888884907911</v>
+        <v>67.76971624456044</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>277.7033784891439</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.26682492830611</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>116.9463293356976</v>
       </c>
       <c r="I25" t="n">
-        <v>71.8766712439448</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T25" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>315.0589962044075</v>
       </c>
       <c r="F26" t="n">
-        <v>90.19967567415819</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,7 +24508,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.4341936069273</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>17.92267442968887</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.8766712439448</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>92.13775082880335</v>
       </c>
       <c r="G29" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H29" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.89215638146401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>127.2003618413888</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>149.3632532469757</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I31" t="n">
-        <v>71.8766712439448</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>263.3516548816798</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24922,13 +24922,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20.88547465358471</v>
+        <v>54.36317522358939</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3019706430941</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.89215638146401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>147.0853379715715</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H34" t="n">
-        <v>94.98038753028362</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9888884907911</v>
+        <v>79.44057157399553</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>375.3571384340635</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.9280505619609</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7000943114157</v>
+        <v>13.83635248539034</v>
       </c>
       <c r="H37" t="n">
         <v>134.4071151528002</v>
       </c>
       <c r="I37" t="n">
-        <v>71.8766712439448</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.89215638146401</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>41.87891158211585</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>280.9911942559834</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>72.99186641799064</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7000943114157</v>
@@ -25569,7 +25569,7 @@
         <v>134.4071151528002</v>
       </c>
       <c r="I40" t="n">
-        <v>71.8766712439448</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>129.0306108920259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>306.7792221990493</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>236.5866399481529</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>129.0306108920261</v>
       </c>
       <c r="G43" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I43" t="n">
         <v>71.87667124394481</v>
@@ -25836,7 +25836,7 @@
         <v>6.356991008623012</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>196.6808096715927</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>369.0552833142382</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H44" t="n">
         <v>274.4717029063549</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.89215638146402</v>
+        <v>13.97564064216202</v>
       </c>
       <c r="T44" t="n">
         <v>209.9888884907911</v>
@@ -25924,16 +25924,16 @@
         <v>255.6118642180837</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>277.3338237039372</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>260.6548939588687</v>
       </c>
       <c r="W46" t="n">
-        <v>25.60708484004098</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363388.2397274547</v>
+        <v>363388.2397274545</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363388.2397274547</v>
+        <v>363388.2397274545</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>363388.2397274548</v>
+        <v>363388.2397274547</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>363388.2397274547</v>
+        <v>363388.2397274548</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363388.2397274548</v>
+        <v>363388.2397274547</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>430317.9085594746</v>
       </c>
       <c r="C2" t="n">
-        <v>430327.0649809614</v>
+        <v>430327.0649809615</v>
       </c>
       <c r="D2" t="n">
         <v>430328.0796187826</v>
       </c>
       <c r="E2" t="n">
+        <v>256535.128628178</v>
+      </c>
+      <c r="F2" t="n">
+        <v>256535.1286281779</v>
+      </c>
+      <c r="G2" t="n">
         <v>256535.1286281778</v>
-      </c>
-      <c r="F2" t="n">
-        <v>256535.128628178</v>
-      </c>
-      <c r="G2" t="n">
-        <v>256535.1286281779</v>
       </c>
       <c r="H2" t="n">
         <v>256535.1286281778</v>
@@ -26337,10 +26337,10 @@
         <v>256535.1286281778</v>
       </c>
       <c r="J2" t="n">
-        <v>256535.1286281778</v>
+        <v>256535.128628178</v>
       </c>
       <c r="K2" t="n">
-        <v>256535.1286281778</v>
+        <v>256535.128628178</v>
       </c>
       <c r="L2" t="n">
         <v>256535.1286281778</v>
@@ -26371,10 +26371,10 @@
         <v>34741.06549511107</v>
       </c>
       <c r="D3" t="n">
-        <v>3620.625146095253</v>
+        <v>3620.625146095259</v>
       </c>
       <c r="E3" t="n">
-        <v>524578.4119623895</v>
+        <v>524578.4119623892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>133702.0149067001</v>
+        <v>133702.0149067</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>311345.8157815178</v>
       </c>
       <c r="E4" t="n">
-        <v>21785.41884336024</v>
+        <v>21785.41884336026</v>
       </c>
       <c r="F4" t="n">
-        <v>21785.41884336024</v>
+        <v>21785.41884336025</v>
       </c>
       <c r="G4" t="n">
-        <v>21785.41884336024</v>
+        <v>21785.41884336026</v>
       </c>
       <c r="H4" t="n">
-        <v>21785.41884336026</v>
+        <v>21785.41884336025</v>
       </c>
       <c r="I4" t="n">
         <v>21785.41884336025</v>
@@ -26444,16 +26444,16 @@
         <v>21785.41884336025</v>
       </c>
       <c r="K4" t="n">
-        <v>21785.41884336025</v>
+        <v>21785.41884336026</v>
       </c>
       <c r="L4" t="n">
-        <v>21785.41884336025</v>
+        <v>21785.41884336027</v>
       </c>
       <c r="M4" t="n">
-        <v>21785.41884336025</v>
+        <v>21785.41884336026</v>
       </c>
       <c r="N4" t="n">
-        <v>21785.41884336025</v>
+        <v>21785.41884336026</v>
       </c>
       <c r="O4" t="n">
         <v>21785.41884336026</v>
@@ -26478,22 +26478,22 @@
         <v>34551.47122049312</v>
       </c>
       <c r="E5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="F5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="G5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="H5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="I5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="J5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="K5" t="n">
         <v>43431.53559403698</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72969.45454503008</v>
+        <v>72947.7409035336</v>
       </c>
       <c r="C6" t="n">
-        <v>48589.25507487101</v>
+        <v>48567.57195477968</v>
       </c>
       <c r="D6" t="n">
-        <v>80810.16747067645</v>
+        <v>80788.48773271109</v>
       </c>
       <c r="E6" t="n">
-        <v>-333260.2377716089</v>
+        <v>-333861.2273462092</v>
       </c>
       <c r="F6" t="n">
-        <v>191318.1741907808</v>
+        <v>190717.1846161801</v>
       </c>
       <c r="G6" t="n">
-        <v>191318.1741907808</v>
+        <v>190717.1846161799</v>
       </c>
       <c r="H6" t="n">
-        <v>191318.1741907806</v>
+        <v>190717.18461618</v>
       </c>
       <c r="I6" t="n">
-        <v>191318.1741907806</v>
+        <v>190717.1846161799</v>
       </c>
       <c r="J6" t="n">
-        <v>191318.1741907806</v>
+        <v>190717.1846161801</v>
       </c>
       <c r="K6" t="n">
-        <v>191318.1741907806</v>
+        <v>190717.1846161801</v>
       </c>
       <c r="L6" t="n">
-        <v>191318.1741907806</v>
+        <v>190717.1846161799</v>
       </c>
       <c r="M6" t="n">
-        <v>57616.15928408061</v>
+        <v>57015.16970947999</v>
       </c>
       <c r="N6" t="n">
-        <v>191318.1741907807</v>
+        <v>190717.18461618</v>
       </c>
       <c r="O6" t="n">
-        <v>191318.1741907806</v>
+        <v>190717.1846161799</v>
       </c>
       <c r="P6" t="n">
-        <v>191318.1741907806</v>
+        <v>190717.1846161799</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9331594087366</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="F3" t="n">
-        <v>495.9331594087366</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="G3" t="n">
-        <v>495.9331594087366</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="H3" t="n">
         <v>495.9331594087365</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9331594087366</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="J3" t="n">
         <v>495.9331594087365</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="F4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="G4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="H4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="I4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="J4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="K4" t="n">
         <v>536.5163276139231</v>
@@ -26965,10 +26965,10 @@
         <v>38.15175619547406</v>
       </c>
       <c r="D3" t="n">
-        <v>4.22765758861398</v>
+        <v>4.227657588613987</v>
       </c>
       <c r="E3" t="n">
-        <v>453.5537456246486</v>
+        <v>453.5537456246483</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139227</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31284,16 +31284,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I5" t="n">
-        <v>5.912947058195031</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J5" t="n">
-        <v>13.01741755736931</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K5" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L5" t="n">
-        <v>24.20355081735587</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M5" t="n">
         <v>26.93111380928054</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08206226804309515</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H6" t="n">
         <v>0.7925487466267348</v>
@@ -31366,7 +31366,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J6" t="n">
-        <v>7.753084718931197</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K6" t="n">
         <v>13.25125667781857</v>
@@ -31393,13 +31393,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S6" t="n">
-        <v>1.524270636677665</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T6" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00539883342388784</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6116789763798959</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I7" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J7" t="n">
-        <v>4.864036195609864</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K7" t="n">
-        <v>7.99310564226489</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L7" t="n">
         <v>10.22842329214398</v>
@@ -31460,22 +31460,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O7" t="n">
-        <v>9.7243197594628</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P7" t="n">
-        <v>8.320835482370272</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.760915185516582</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R7" t="n">
-        <v>3.093419444964174</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S7" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2939561542929967</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U7" t="n">
         <v>0.003752631756931878</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.993701143351704</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41799183435064</v>
+        <v>20.41799183435063</v>
       </c>
       <c r="I11" t="n">
-        <v>76.86216332906662</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J11" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K11" t="n">
-        <v>253.6062618136245</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M11" t="n">
-        <v>350.0764758875551</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N11" t="n">
-        <v>355.7410792611032</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9162135168996</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P11" t="n">
-        <v>286.6967165404044</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R11" t="n">
-        <v>125.2368294460666</v>
+        <v>125.2368294460665</v>
       </c>
       <c r="S11" t="n">
-        <v>45.43146480412699</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T11" t="n">
-        <v>8.727426755022087</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1594960914681363</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.066724154199924</v>
       </c>
       <c r="H12" t="n">
-        <v>10.3023095945098</v>
+        <v>10.30230959450979</v>
       </c>
       <c r="I12" t="n">
-        <v>36.72712548451494</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J12" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K12" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L12" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M12" t="n">
-        <v>270.2835718777614</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O12" t="n">
-        <v>253.8008122494881</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P12" t="n">
-        <v>203.6975273050715</v>
+        <v>203.6975273050714</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1664025606781</v>
+        <v>136.166402560678</v>
       </c>
       <c r="R12" t="n">
-        <v>66.23046985462338</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S12" t="n">
-        <v>19.81393330279244</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T12" t="n">
-        <v>4.299646919779517</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07017922067104766</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.894305697294443</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951190654126963</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I13" t="n">
-        <v>26.89421133318199</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J13" t="n">
-        <v>63.22741279871712</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K13" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L13" t="n">
         <v>132.9588670323029</v>
       </c>
       <c r="M13" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N13" t="n">
         <v>136.8531618414306</v>
       </c>
       <c r="O13" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P13" t="n">
-        <v>108.1622090618661</v>
+        <v>108.162209061866</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.88590707071923</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R13" t="n">
-        <v>40.21123617107558</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S13" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T13" t="n">
-        <v>3.821124342985347</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04878031076151513</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.993701143351704</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41799183435064</v>
+        <v>20.41799183435063</v>
       </c>
       <c r="I14" t="n">
-        <v>76.86216332906662</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K14" t="n">
-        <v>253.6062618136245</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M14" t="n">
-        <v>350.0764758875551</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N14" t="n">
-        <v>355.7410792611032</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O14" t="n">
-        <v>335.9162135168996</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P14" t="n">
-        <v>286.6967165404044</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R14" t="n">
-        <v>125.2368294460666</v>
+        <v>125.2368294460665</v>
       </c>
       <c r="S14" t="n">
-        <v>45.43146480412699</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T14" t="n">
-        <v>8.727426755022087</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1594960914681363</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.066724154199924</v>
       </c>
       <c r="H15" t="n">
-        <v>10.3023095945098</v>
+        <v>10.30230959450979</v>
       </c>
       <c r="I15" t="n">
-        <v>36.72712548451494</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J15" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K15" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L15" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M15" t="n">
-        <v>270.2835718777614</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N15" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O15" t="n">
-        <v>253.8008122494881</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P15" t="n">
-        <v>203.6975273050715</v>
+        <v>203.6975273050714</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1664025606781</v>
+        <v>136.166402560678</v>
       </c>
       <c r="R15" t="n">
-        <v>66.23046985462338</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S15" t="n">
-        <v>19.81393330279244</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T15" t="n">
-        <v>4.299646919779517</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07017922067104766</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.894305697294443</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H16" t="n">
-        <v>7.951190654126963</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I16" t="n">
-        <v>26.89421133318199</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J16" t="n">
-        <v>63.22741279871712</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K16" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L16" t="n">
         <v>132.9588670323029</v>
       </c>
       <c r="M16" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N16" t="n">
         <v>136.8531618414306</v>
       </c>
       <c r="O16" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P16" t="n">
-        <v>108.1622090618661</v>
+        <v>108.162209061866</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.88590707071923</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R16" t="n">
-        <v>40.21123617107558</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S16" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T16" t="n">
-        <v>3.821124342985347</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04878031076151513</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H17" t="n">
-        <v>20.41799183435064</v>
+        <v>20.41799183435063</v>
       </c>
       <c r="I17" t="n">
-        <v>76.86216332906662</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J17" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K17" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L17" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M17" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N17" t="n">
-        <v>355.7410792611031</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O17" t="n">
-        <v>335.9162135168996</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P17" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q17" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R17" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S17" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T17" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I18" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J18" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K18" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L18" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M18" t="n">
-        <v>270.2835718777614</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N18" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O18" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P18" t="n">
-        <v>203.6975273050715</v>
+        <v>203.6975273050714</v>
       </c>
       <c r="Q18" t="n">
         <v>136.166402560678</v>
       </c>
       <c r="R18" t="n">
-        <v>66.23046985462338</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S18" t="n">
-        <v>19.81393330279244</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T18" t="n">
-        <v>4.299646919779517</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07017922067104766</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8943056972944429</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H19" t="n">
-        <v>7.951190654126962</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I19" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J19" t="n">
-        <v>63.22741279871711</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K19" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L19" t="n">
         <v>132.9588670323029</v>
       </c>
       <c r="M19" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N19" t="n">
         <v>136.8531618414306</v>
       </c>
       <c r="O19" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P19" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.88590707071921</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R19" t="n">
-        <v>40.21123617107558</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S19" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T19" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,28 +32703,28 @@
         <v>1.993701143351703</v>
       </c>
       <c r="H23" t="n">
-        <v>20.41799183435064</v>
+        <v>20.41799183435063</v>
       </c>
       <c r="I23" t="n">
-        <v>76.86216332906662</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J23" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K23" t="n">
         <v>253.6062618136244</v>
       </c>
       <c r="L23" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M23" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N23" t="n">
-        <v>355.7410792611031</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9162135168996</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P23" t="n">
         <v>286.6967165404043</v>
@@ -32736,10 +32736,10 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T23" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U23" t="n">
         <v>0.1594960914681362</v>
@@ -32785,7 +32785,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I24" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J24" t="n">
         <v>100.7820394983358</v>
@@ -32797,31 +32797,31 @@
         <v>231.6148212880142</v>
       </c>
       <c r="M24" t="n">
-        <v>270.2835718777614</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N24" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O24" t="n">
         <v>253.800812249488</v>
       </c>
       <c r="P24" t="n">
-        <v>203.6975273050715</v>
+        <v>203.6975273050714</v>
       </c>
       <c r="Q24" t="n">
         <v>136.166402560678</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23046985462338</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S24" t="n">
-        <v>19.81393330279244</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T24" t="n">
-        <v>4.299646919779517</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07017922067104766</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943056972944429</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H25" t="n">
-        <v>7.951190654126962</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I25" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J25" t="n">
-        <v>63.22741279871711</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K25" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L25" t="n">
         <v>132.9588670323029</v>
@@ -32882,22 +32882,22 @@
         <v>136.8531618414306</v>
       </c>
       <c r="O25" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P25" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.88590707071921</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21123617107558</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S25" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U25" t="n">
         <v>0.04878031076151512</v>
@@ -32946,16 +32946,16 @@
         <v>76.8621633290666</v>
       </c>
       <c r="J26" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K26" t="n">
         <v>253.6062618136244</v>
       </c>
       <c r="L26" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M26" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N26" t="n">
         <v>355.741079261103</v>
@@ -32973,10 +32973,10 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T26" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U26" t="n">
         <v>0.1594960914681362</v>
@@ -33022,7 +33022,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I27" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J27" t="n">
         <v>100.7820394983358</v>
@@ -33037,7 +33037,7 @@
         <v>270.2835718777613</v>
       </c>
       <c r="N27" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O27" t="n">
         <v>253.800812249488</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943056972944428</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H28" t="n">
-        <v>7.951190654126961</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I28" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J28" t="n">
         <v>63.2274127987171</v>
       </c>
       <c r="K28" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L28" t="n">
         <v>132.9588670323029</v>
@@ -33119,22 +33119,22 @@
         <v>136.8531618414306</v>
       </c>
       <c r="O28" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P28" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.88590707071921</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R28" t="n">
         <v>40.21123617107557</v>
       </c>
       <c r="S28" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U28" t="n">
         <v>0.04878031076151512</v>
@@ -33183,16 +33183,16 @@
         <v>76.8621633290666</v>
       </c>
       <c r="J29" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K29" t="n">
         <v>253.6062618136244</v>
       </c>
       <c r="L29" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M29" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N29" t="n">
         <v>355.741079261103</v>
@@ -33210,10 +33210,10 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T29" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U29" t="n">
         <v>0.1594960914681362</v>
@@ -33259,7 +33259,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I30" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J30" t="n">
         <v>100.7820394983358</v>
@@ -33274,7 +33274,7 @@
         <v>270.2835718777613</v>
       </c>
       <c r="N30" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O30" t="n">
         <v>253.800812249488</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943056972944428</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H31" t="n">
-        <v>7.951190654126961</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I31" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J31" t="n">
         <v>63.2274127987171</v>
       </c>
       <c r="K31" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L31" t="n">
         <v>132.9588670323029</v>
@@ -33356,22 +33356,22 @@
         <v>136.8531618414306</v>
       </c>
       <c r="O31" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P31" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.88590707071921</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R31" t="n">
         <v>40.21123617107557</v>
       </c>
       <c r="S31" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U31" t="n">
         <v>0.04878031076151512</v>
@@ -33420,16 +33420,16 @@
         <v>76.8621633290666</v>
       </c>
       <c r="J32" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K32" t="n">
         <v>253.6062618136244</v>
       </c>
       <c r="L32" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M32" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N32" t="n">
         <v>355.741079261103</v>
@@ -33447,10 +33447,10 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T32" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U32" t="n">
         <v>0.1594960914681362</v>
@@ -33496,7 +33496,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I33" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J33" t="n">
         <v>100.7820394983358</v>
@@ -33511,7 +33511,7 @@
         <v>270.2835718777613</v>
       </c>
       <c r="N33" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O33" t="n">
         <v>253.800812249488</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943056972944428</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H34" t="n">
-        <v>7.951190654126961</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I34" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J34" t="n">
         <v>63.2274127987171</v>
       </c>
       <c r="K34" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L34" t="n">
         <v>132.9588670323029</v>
@@ -33593,22 +33593,22 @@
         <v>136.8531618414306</v>
       </c>
       <c r="O34" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P34" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.88590707071921</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R34" t="n">
         <v>40.21123617107557</v>
       </c>
       <c r="S34" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U34" t="n">
         <v>0.04878031076151512</v>
@@ -33657,16 +33657,16 @@
         <v>76.8621633290666</v>
       </c>
       <c r="J35" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K35" t="n">
         <v>253.6062618136244</v>
       </c>
       <c r="L35" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M35" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N35" t="n">
         <v>355.741079261103</v>
@@ -33684,10 +33684,10 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T35" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U35" t="n">
         <v>0.1594960914681362</v>
@@ -33733,7 +33733,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I36" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J36" t="n">
         <v>100.7820394983358</v>
@@ -33748,7 +33748,7 @@
         <v>270.2835718777613</v>
       </c>
       <c r="N36" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O36" t="n">
         <v>253.800812249488</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943056972944428</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951190654126961</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I37" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J37" t="n">
         <v>63.2274127987171</v>
       </c>
       <c r="K37" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L37" t="n">
         <v>132.9588670323029</v>
@@ -33830,22 +33830,22 @@
         <v>136.8531618414306</v>
       </c>
       <c r="O37" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P37" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.88590707071921</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R37" t="n">
         <v>40.21123617107557</v>
       </c>
       <c r="S37" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U37" t="n">
         <v>0.04878031076151512</v>
@@ -33894,16 +33894,16 @@
         <v>76.8621633290666</v>
       </c>
       <c r="J38" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K38" t="n">
         <v>253.6062618136244</v>
       </c>
       <c r="L38" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M38" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N38" t="n">
         <v>355.741079261103</v>
@@ -33921,10 +33921,10 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T38" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U38" t="n">
         <v>0.1594960914681362</v>
@@ -33970,7 +33970,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I39" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J39" t="n">
         <v>100.7820394983358</v>
@@ -33985,7 +33985,7 @@
         <v>270.2835718777613</v>
       </c>
       <c r="N39" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O39" t="n">
         <v>253.800812249488</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943056972944428</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H40" t="n">
-        <v>7.951190654126961</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I40" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J40" t="n">
         <v>63.2274127987171</v>
       </c>
       <c r="K40" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L40" t="n">
         <v>132.9588670323029</v>
@@ -34067,22 +34067,22 @@
         <v>136.8531618414306</v>
       </c>
       <c r="O40" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P40" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.88590707071921</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R40" t="n">
         <v>40.21123617107557</v>
       </c>
       <c r="S40" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U40" t="n">
         <v>0.04878031076151512</v>
@@ -34371,7 +34371,7 @@
         <v>169.2128924155467</v>
       </c>
       <c r="K44" t="n">
-        <v>253.6062618136249</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L44" t="n">
         <v>314.6209931794741</v>
@@ -34389,7 +34389,7 @@
         <v>286.6967165404043</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441217</v>
       </c>
       <c r="R44" t="n">
         <v>125.2368294460665</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.31426078510312</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J11" t="n">
-        <v>139.7929329299603</v>
+        <v>139.7929329299602</v>
       </c>
       <c r="K11" t="n">
-        <v>217.8416610188151</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L11" t="n">
-        <v>276.3089507468513</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M11" t="n">
-        <v>312.6452129881233</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4614564266572</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O11" t="n">
-        <v>298.5252541608755</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P11" t="n">
-        <v>249.1213547301731</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.1726197395234</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R11" t="n">
-        <v>90.20417955127007</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.55473873451493</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17092516500249</v>
+        <v>80.17092516500243</v>
       </c>
       <c r="K12" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L12" t="n">
-        <v>209.0997345737847</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M12" t="n">
-        <v>247.1867913654334</v>
+        <v>376.1621966289094</v>
       </c>
       <c r="N12" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O12" t="n">
-        <v>489.8192834769202</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P12" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q12" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R12" t="n">
-        <v>42.55755046047923</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.59065681481525</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K13" t="n">
-        <v>82.93740746931509</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L13" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M13" t="n">
-        <v>279.3720028217274</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N13" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O13" t="n">
-        <v>485.4243570844133</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P13" t="n">
-        <v>401.6967665587358</v>
+        <v>88.89897078067585</v>
       </c>
       <c r="Q13" t="n">
         <v>203.1688669098727</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.31426078510312</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J14" t="n">
-        <v>139.7929329299603</v>
+        <v>139.7929329299602</v>
       </c>
       <c r="K14" t="n">
-        <v>217.8416610188151</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L14" t="n">
-        <v>276.3089507468513</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M14" t="n">
-        <v>312.6452129881233</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N14" t="n">
-        <v>318.4614564266572</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O14" t="n">
-        <v>298.5252541608755</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P14" t="n">
-        <v>249.1213547301731</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q14" t="n">
-        <v>179.1726197395234</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R14" t="n">
-        <v>90.20417955127007</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.24898706220367</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17092516500249</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K15" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L15" t="n">
-        <v>209.0997345737847</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M15" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N15" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O15" t="n">
-        <v>359.604327790741</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P15" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q15" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R15" t="n">
-        <v>149.0782578189699</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.2994615099879</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K16" t="n">
         <v>332.717820715802</v>
       </c>
       <c r="L16" t="n">
-        <v>111.0401071366017</v>
+        <v>111.0401071366016</v>
       </c>
       <c r="M16" t="n">
-        <v>535.3236497134177</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N16" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O16" t="n">
-        <v>455.9394722710421</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P16" t="n">
-        <v>401.6967665587358</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.26634430593428</v>
+        <v>115.1494132997974</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.31426078510312</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J17" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K17" t="n">
-        <v>217.8416610188151</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L17" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M17" t="n">
-        <v>312.6452129881232</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N17" t="n">
-        <v>318.4614564266571</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O17" t="n">
-        <v>298.5252541608755</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P17" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q17" t="n">
-        <v>179.1726197395234</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R17" t="n">
-        <v>90.20417955127007</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.24898706220365</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17092516500249</v>
+        <v>209.1463304284786</v>
       </c>
       <c r="K18" t="n">
-        <v>385.3494366183632</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L18" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N18" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O18" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P18" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q18" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R18" t="n">
-        <v>42.55755046047923</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.59065681481525</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K19" t="n">
-        <v>82.93740746931508</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L19" t="n">
-        <v>491.2309087438391</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M19" t="n">
-        <v>117.6110431853149</v>
+        <v>421.0273633277894</v>
       </c>
       <c r="N19" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O19" t="n">
-        <v>266.9945151135888</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P19" t="n">
-        <v>401.6967665587357</v>
+        <v>85.7814084038795</v>
       </c>
       <c r="Q19" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17092516500246</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K21" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L21" t="n">
-        <v>468.2900955234398</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M21" t="n">
         <v>247.1867913654334</v>
@@ -36223,7 +36223,7 @@
         <v>113.4193642716995</v>
       </c>
       <c r="R21" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>332.717820715802</v>
       </c>
       <c r="L22" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M22" t="n">
-        <v>117.6110431853149</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N22" t="n">
-        <v>351.4294599766241</v>
+        <v>403.8614318962426</v>
       </c>
       <c r="O22" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P22" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.31426078510312</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J23" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K23" t="n">
-        <v>217.8416610188151</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L23" t="n">
         <v>276.3089507468512</v>
       </c>
       <c r="M23" t="n">
-        <v>312.6452129881232</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N23" t="n">
-        <v>318.4614564266571</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O23" t="n">
-        <v>298.5252541608755</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P23" t="n">
         <v>249.121354730173</v>
       </c>
       <c r="Q23" t="n">
-        <v>179.1726197395234</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R23" t="n">
-        <v>90.20417955127007</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.55473873451493</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17092516500249</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K24" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L24" t="n">
         <v>209.0997345737846</v>
@@ -36448,7 +36448,7 @@
         <v>247.1867913654334</v>
       </c>
       <c r="N24" t="n">
-        <v>515.2845065076099</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O24" t="n">
         <v>230.6289225272658</v>
@@ -36460,7 +36460,7 @@
         <v>113.4193642716995</v>
       </c>
       <c r="R24" t="n">
-        <v>42.55755046047923</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.59065681481525</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K25" t="n">
-        <v>246.0250647946556</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L25" t="n">
-        <v>491.2309087438391</v>
+        <v>323.9063410037052</v>
       </c>
       <c r="M25" t="n">
-        <v>117.6110431853149</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N25" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O25" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P25" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q25" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>217.841661018815</v>
       </c>
       <c r="L26" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468508</v>
       </c>
       <c r="M26" t="n">
         <v>312.6452129881231</v>
@@ -36618,7 +36618,7 @@
         <v>179.1726197395233</v>
       </c>
       <c r="R26" t="n">
-        <v>90.20417955127064</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.55473873451493</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J27" t="n">
-        <v>80.17092516500247</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K27" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L27" t="n">
         <v>209.0997345737846</v>
       </c>
       <c r="M27" t="n">
-        <v>506.3771523150882</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N27" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O27" t="n">
         <v>230.6289225272658</v>
@@ -36694,10 +36694,10 @@
         <v>181.9266861002428</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.4193642716995</v>
+        <v>242.3947695351754</v>
       </c>
       <c r="R27" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.59065681481523</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K28" t="n">
-        <v>230.3659156825934</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L28" t="n">
-        <v>491.2309087438391</v>
+        <v>111.0401071366017</v>
       </c>
       <c r="M28" t="n">
         <v>535.3236497134177</v>
       </c>
       <c r="N28" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O28" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P28" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.1688669098727</v>
+        <v>184.4237734778652</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>217.841661018815</v>
       </c>
       <c r="L29" t="n">
-        <v>276.3089507468517</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M29" t="n">
         <v>312.6452129881231</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.55473873451493</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J30" t="n">
-        <v>80.17092516500247</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K30" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L30" t="n">
         <v>209.0997345737846</v>
@@ -36922,19 +36922,19 @@
         <v>247.1867913654334</v>
       </c>
       <c r="N30" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O30" t="n">
-        <v>489.8192834769206</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P30" t="n">
-        <v>181.9266861002428</v>
+        <v>310.9020913637186</v>
       </c>
       <c r="Q30" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R30" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.59065681481523</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K31" t="n">
-        <v>82.93740746931506</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L31" t="n">
-        <v>491.2309087438391</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M31" t="n">
-        <v>215.0965593693465</v>
+        <v>268.124840723852</v>
       </c>
       <c r="N31" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O31" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P31" t="n">
-        <v>85.78140840387954</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q31" t="n">
         <v>203.1688669098727</v>
@@ -37071,7 +37071,7 @@
         <v>139.7929329299602</v>
       </c>
       <c r="K32" t="n">
-        <v>217.8416610188155</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L32" t="n">
         <v>276.3089507468512</v>
@@ -37089,7 +37089,7 @@
         <v>249.121354730173</v>
       </c>
       <c r="Q32" t="n">
-        <v>179.1726197395233</v>
+        <v>179.1726197395237</v>
       </c>
       <c r="R32" t="n">
         <v>90.20417955127004</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.55473873451493</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J33" t="n">
-        <v>80.17092516500247</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K33" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L33" t="n">
         <v>209.0997345737846</v>
@@ -37159,10 +37159,10 @@
         <v>247.1867913654334</v>
       </c>
       <c r="N33" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O33" t="n">
-        <v>489.8192834769206</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P33" t="n">
         <v>181.9266861002428</v>
@@ -37171,7 +37171,7 @@
         <v>113.4193642716995</v>
       </c>
       <c r="R33" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.59065681481523</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K34" t="n">
-        <v>82.93740746931506</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L34" t="n">
-        <v>257.1419176609522</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M34" t="n">
-        <v>535.3236497134177</v>
+        <v>421.0273633277903</v>
       </c>
       <c r="N34" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O34" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P34" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q34" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>44.24898706220365</v>
       </c>
       <c r="J36" t="n">
-        <v>80.17092516500247</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K36" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L36" t="n">
         <v>209.0997345737846</v>
@@ -37396,7 +37396,7 @@
         <v>247.1867913654334</v>
       </c>
       <c r="N36" t="n">
-        <v>491.5902581799212</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O36" t="n">
         <v>230.6289225272658</v>
@@ -37408,7 +37408,7 @@
         <v>113.4193642716995</v>
       </c>
       <c r="R36" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.59065681481523</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K37" t="n">
-        <v>82.93740746931506</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L37" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M37" t="n">
-        <v>432.2745254256658</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N37" t="n">
-        <v>518.1577182818708</v>
+        <v>403.8614318962435</v>
       </c>
       <c r="O37" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P37" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.26634430593427</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.55473873451493</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17092516500247</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K39" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L39" t="n">
         <v>209.0997345737846</v>
@@ -37633,19 +37633,19 @@
         <v>247.1867913654334</v>
       </c>
       <c r="N39" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O39" t="n">
         <v>230.6289225272658</v>
       </c>
       <c r="P39" t="n">
-        <v>441.1170470498978</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q39" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R39" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.59065681481523</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K40" t="n">
-        <v>82.93740746931506</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L40" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M40" t="n">
-        <v>432.2745254256658</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N40" t="n">
-        <v>518.1577182818708</v>
+        <v>403.8614318962435</v>
       </c>
       <c r="O40" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P40" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.26634430593427</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>20.55473873451492</v>
       </c>
       <c r="J42" t="n">
-        <v>80.17092516500246</v>
+        <v>232.8405787561672</v>
       </c>
       <c r="K42" t="n">
         <v>149.8533239963973</v>
@@ -37879,10 +37879,10 @@
         <v>181.9266861002428</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.6097252213547</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R42" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>121.2994615099878</v>
       </c>
       <c r="K43" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L43" t="n">
-        <v>111.0401071366017</v>
+        <v>245.1975363085336</v>
       </c>
       <c r="M43" t="n">
-        <v>117.6110431853149</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N43" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O43" t="n">
-        <v>318.6960987791667</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P43" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>139.7929329299602</v>
       </c>
       <c r="K44" t="n">
-        <v>217.8416610188156</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L44" t="n">
         <v>276.3089507468512</v>
@@ -38037,7 +38037,7 @@
         <v>249.121354730173</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.1726197395233</v>
+        <v>179.1726197395237</v>
       </c>
       <c r="R44" t="n">
         <v>90.20417955127004</v>
@@ -38095,7 +38095,7 @@
         <v>20.55473873451492</v>
       </c>
       <c r="J45" t="n">
-        <v>80.17092516500246</v>
+        <v>232.8405787561672</v>
       </c>
       <c r="K45" t="n">
         <v>149.8533239963973</v>
@@ -38110,7 +38110,7 @@
         <v>256.0941455579551</v>
       </c>
       <c r="O45" t="n">
-        <v>489.8192834769212</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P45" t="n">
         <v>181.9266861002428</v>
@@ -38119,7 +38119,7 @@
         <v>113.4193642716995</v>
       </c>
       <c r="R45" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>42.59065681481523</v>
       </c>
       <c r="K46" t="n">
-        <v>266.5610229145312</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L46" t="n">
-        <v>491.230908743839</v>
+        <v>323.9063410037062</v>
       </c>
       <c r="M46" t="n">
-        <v>117.6110431853149</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N46" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O46" t="n">
         <v>485.4243570844132</v>
       </c>
       <c r="P46" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q46" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
